--- a/KPIS/labs/labsGrachev.xlsx
+++ b/KPIS/labs/labsGrachev.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gggchaseggg/Documents/GitHub/VlSU/KPIS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VlSU\KPIS\labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038A2A0B-F78A-1648-AE2D-FF29C636CA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C296D1DC-8F0B-40A7-9DC8-D210460634F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{088274D3-D47E-AB49-ACE1-645B75D94739}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{088274D3-D47E-AB49-ACE1-645B75D94739}"/>
   </bookViews>
   <sheets>
     <sheet name="lab1" sheetId="1" r:id="rId1"/>
     <sheet name="lab2" sheetId="2" r:id="rId2"/>
     <sheet name="lab3" sheetId="3" r:id="rId3"/>
     <sheet name="lab4" sheetId="4" r:id="rId4"/>
+    <sheet name="lab5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="149">
   <si>
     <t>Q1</t>
   </si>
@@ -403,15 +404,112 @@
   <si>
     <t>Добротность ИС</t>
   </si>
+  <si>
+    <t>1 месяц</t>
+  </si>
+  <si>
+    <t>2 месяц</t>
+  </si>
+  <si>
+    <t>Затраты</t>
+  </si>
+  <si>
+    <t>Доходы</t>
+  </si>
+  <si>
+    <t>Разность</t>
+  </si>
+  <si>
+    <t>Ток</t>
+  </si>
+  <si>
+    <t>Время</t>
+  </si>
+  <si>
+    <t>Отказ</t>
+  </si>
+  <si>
+    <t>Тип отказа</t>
+  </si>
+  <si>
+    <t>Аппаратный сбой</t>
+  </si>
+  <si>
+    <t>Человеческий фактор</t>
+  </si>
+  <si>
+    <t>λ1</t>
+  </si>
+  <si>
+    <t>λ2</t>
+  </si>
+  <si>
+    <t>λ3</t>
+  </si>
+  <si>
+    <t>λ4</t>
+  </si>
+  <si>
+    <t>λ5</t>
+  </si>
+  <si>
+    <t>λ6</t>
+  </si>
+  <si>
+    <t>λ7</t>
+  </si>
+  <si>
+    <t>λ8</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="174" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -477,8 +575,32 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,6 +615,29 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,11 +738,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -637,6 +783,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -658,58 +837,46 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1984,15 +2151,15 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -2007,35 +2174,35 @@
         <v>8</v>
       </c>
       <c r="G1" s="1"/>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="T1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-    </row>
-    <row r="2" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+    </row>
+    <row r="2" spans="1:28" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2109,7 +2276,7 @@
       </c>
       <c r="AB2" s="2"/>
     </row>
-    <row r="3" spans="1:28" ht="36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2173,7 +2340,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2237,7 +2404,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="72" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2283,7 +2450,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2329,7 +2496,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="16.5" x14ac:dyDescent="0.25">
       <c r="T7" s="2" t="s">
         <v>26</v>
       </c>
@@ -2344,7 +2511,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="54" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="33" x14ac:dyDescent="0.25">
       <c r="T8" s="2" t="s">
         <v>28</v>
       </c>
@@ -2359,7 +2526,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="54" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="33" x14ac:dyDescent="0.25">
       <c r="T9" s="2" t="s">
         <v>30</v>
       </c>
@@ -2374,7 +2541,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="16.5" x14ac:dyDescent="0.25">
       <c r="T10" s="2" t="s">
         <v>32</v>
       </c>
@@ -2389,7 +2556,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="16.5" x14ac:dyDescent="0.25">
       <c r="T11" s="2" t="s">
         <v>34</v>
       </c>
@@ -2404,7 +2571,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="16.5" x14ac:dyDescent="0.25">
       <c r="T12" s="2" t="s">
         <v>36</v>
       </c>
@@ -2419,7 +2586,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="33" x14ac:dyDescent="0.25">
       <c r="T13" s="2" t="s">
         <v>38</v>
       </c>
@@ -2434,7 +2601,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="33" x14ac:dyDescent="0.25">
       <c r="T14" s="2" t="s">
         <v>40</v>
       </c>
@@ -2449,7 +2616,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="33" x14ac:dyDescent="0.25">
       <c r="T15" s="2" t="s">
         <v>42</v>
       </c>
@@ -2464,7 +2631,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="16.5" x14ac:dyDescent="0.25">
       <c r="T16" s="2" t="s">
         <v>44</v>
       </c>
@@ -2479,7 +2646,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="20:28" ht="36" x14ac:dyDescent="0.2">
+    <row r="17" spans="20:28" ht="33" x14ac:dyDescent="0.25">
       <c r="T17" s="2" t="s">
         <v>46</v>
       </c>
@@ -2513,32 +2680,32 @@
       <selection activeCell="L2" sqref="L2:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" customWidth="1"/>
-    <col min="2" max="8" width="3.6640625" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" customWidth="1"/>
-    <col min="11" max="11" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="3.6640625" customWidth="1"/>
-    <col min="16" max="20" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="2" max="8" width="3.625" customWidth="1"/>
+    <col min="9" max="9" width="25.625" customWidth="1"/>
+    <col min="11" max="11" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="3.625" customWidth="1"/>
+    <col min="16" max="20" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-    </row>
-    <row r="2" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+    </row>
+    <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2">
         <v>7</v>
@@ -2569,7 +2736,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -2591,7 +2758,7 @@
         <v>0.72666666666666668</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2613,7 +2780,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -2635,7 +2802,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -2650,7 +2817,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -2665,7 +2832,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
@@ -2680,7 +2847,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -2695,7 +2862,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -2710,7 +2877,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
@@ -2725,7 +2892,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
@@ -2740,27 +2907,27 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="K15" s="17" t="s">
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="K15" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="19"/>
-    </row>
-    <row r="16" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="32"/>
+    </row>
+    <row r="16" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2">
         <v>7</v>
@@ -2805,7 +2972,7 @@
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
     </row>
-    <row r="17" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -2842,7 +3009,7 @@
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
     </row>
-    <row r="18" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -2879,7 +3046,7 @@
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
     </row>
-    <row r="19" spans="1:20" ht="36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -2916,7 +3083,7 @@
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
     </row>
-    <row r="20" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -2953,7 +3120,7 @@
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
     </row>
-    <row r="21" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -2990,7 +3157,7 @@
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
     </row>
-    <row r="22" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
@@ -3027,7 +3194,7 @@
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
     </row>
-    <row r="23" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>36</v>
       </c>
@@ -3064,7 +3231,7 @@
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
     </row>
-    <row r="24" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>38</v>
       </c>
@@ -3101,7 +3268,7 @@
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
     </row>
-    <row r="25" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
@@ -3140,7 +3307,7 @@
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
     </row>
-    <row r="26" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
@@ -3180,27 +3347,27 @@
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="K28" s="17" t="s">
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="K28" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="19"/>
-    </row>
-    <row r="29" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="32"/>
+    </row>
+    <row r="29" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2">
         <v>7</v>
@@ -3245,7 +3412,7 @@
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
     </row>
-    <row r="30" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>18</v>
       </c>
@@ -3282,7 +3449,7 @@
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
     </row>
-    <row r="31" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
@@ -3319,7 +3486,7 @@
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
     </row>
-    <row r="32" spans="1:20" ht="36" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>22</v>
       </c>
@@ -3356,7 +3523,7 @@
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
     </row>
-    <row r="33" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>24</v>
       </c>
@@ -3393,7 +3560,7 @@
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
     </row>
-    <row r="34" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>28</v>
       </c>
@@ -3430,7 +3597,7 @@
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
     </row>
-    <row r="35" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>30</v>
       </c>
@@ -3467,7 +3634,7 @@
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
     </row>
-    <row r="36" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -3504,7 +3671,7 @@
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
     </row>
-    <row r="37" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
@@ -3541,7 +3708,7 @@
       <c r="S37" s="6"/>
       <c r="T37" s="6"/>
     </row>
-    <row r="38" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>42</v>
       </c>
@@ -3580,7 +3747,7 @@
       <c r="S38" s="6"/>
       <c r="T38" s="6"/>
     </row>
-    <row r="39" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>46</v>
       </c>
@@ -3620,27 +3787,27 @@
       <c r="S39" s="6"/>
       <c r="T39" s="6"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A41" s="15" t="s">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="K41" s="17" t="s">
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="K41" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="19"/>
-    </row>
-    <row r="42" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="32"/>
+    </row>
+    <row r="42" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2">
         <v>7</v>
@@ -3685,7 +3852,7 @@
       <c r="S42" s="6"/>
       <c r="T42" s="6"/>
     </row>
-    <row r="43" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>18</v>
       </c>
@@ -3722,7 +3889,7 @@
       <c r="S43" s="6"/>
       <c r="T43" s="6"/>
     </row>
-    <row r="44" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>20</v>
       </c>
@@ -3759,7 +3926,7 @@
       <c r="S44" s="6"/>
       <c r="T44" s="6"/>
     </row>
-    <row r="45" spans="1:20" ht="36" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>22</v>
       </c>
@@ -3796,7 +3963,7 @@
       <c r="S45" s="6"/>
       <c r="T45" s="6"/>
     </row>
-    <row r="46" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>24</v>
       </c>
@@ -3833,7 +4000,7 @@
       <c r="S46" s="6"/>
       <c r="T46" s="6"/>
     </row>
-    <row r="47" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>28</v>
       </c>
@@ -3870,7 +4037,7 @@
       <c r="S47" s="6"/>
       <c r="T47" s="6"/>
     </row>
-    <row r="48" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>30</v>
       </c>
@@ -3907,7 +4074,7 @@
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
     </row>
-    <row r="49" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>36</v>
       </c>
@@ -3944,7 +4111,7 @@
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
     </row>
-    <row r="50" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>38</v>
       </c>
@@ -3981,7 +4148,7 @@
       <c r="S50" s="6"/>
       <c r="T50" s="6"/>
     </row>
-    <row r="51" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>42</v>
       </c>
@@ -4020,7 +4187,7 @@
       <c r="S51" s="6"/>
       <c r="T51" s="6"/>
     </row>
-    <row r="52" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
@@ -4083,45 +4250,45 @@
       <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="6.6640625" customWidth="1"/>
-    <col min="11" max="11" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="6.625" customWidth="1"/>
+    <col min="11" max="11" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B2" s="20" t="s">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B2" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="K2" s="20" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="K2" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="21" t="s">
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="Q2" s="34" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="2:20" ht="155" x14ac:dyDescent="0.2">
-      <c r="B3" s="20"/>
+    <row r="3" spans="2:20" ht="154.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="33"/>
       <c r="C3" s="11" t="s">
         <v>9</v>
       </c>
@@ -4137,7 +4304,7 @@
       <c r="G3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="20"/>
+      <c r="K3" s="33"/>
       <c r="L3" s="11" t="s">
         <v>6</v>
       </c>
@@ -4147,11 +4314,11 @@
       <c r="N3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>64</v>
       </c>
@@ -4195,7 +4362,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>70</v>
       </c>
@@ -4239,7 +4406,7 @@
         <v>12.25</v>
       </c>
     </row>
-    <row r="6" spans="2:20" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
         <v>73</v>
       </c>
@@ -4283,7 +4450,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="7" spans="2:20" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>65</v>
       </c>
@@ -4327,7 +4494,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
         <v>66</v>
       </c>
@@ -4371,7 +4538,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>67</v>
       </c>
@@ -4415,7 +4582,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>68</v>
       </c>
@@ -4459,7 +4626,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
         <v>69</v>
       </c>
@@ -4503,7 +4670,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>75</v>
       </c>
@@ -4547,7 +4714,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>74</v>
       </c>
@@ -4591,7 +4758,7 @@
         <v>30.25</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="N14" s="1" t="s">
         <v>80</v>
       </c>
@@ -4607,7 +4774,7 @@
         <v>96.5</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
       <c r="O15" s="14"/>
       <c r="S15" s="10" t="s">
         <v>82</v>
@@ -4617,7 +4784,7 @@
         <v>0.12996632996632998</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
       <c r="S16" s="10" t="s">
         <v>83</v>
       </c>
@@ -4644,66 +4811,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F245A1B9-58D9-2D4E-9FC9-D23C6D4C7D96}">
   <dimension ref="B2:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="68" x14ac:dyDescent="0.2">
-      <c r="B2" s="27" t="s">
+    <row r="2" spans="2:12" ht="63" x14ac:dyDescent="0.25">
+      <c r="B2" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="L2" s="47" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="B3" s="28" t="s">
+    <row r="3" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="21">
         <v>0.4</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="20">
         <v>60</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="19">
         <v>20</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="9">
         <f>(D3-E3)/D3</f>
         <v>0.66666666666666663</v>
       </c>
@@ -4717,25 +4884,25 @@
       <c r="K3" s="1">
         <v>0.3</v>
       </c>
-      <c r="L3" s="25">
+      <c r="L3" s="18">
         <f>I3/J3</f>
         <v>8.76</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="B4" s="32" t="s">
+    <row r="4" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="19">
         <v>0.8</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="22">
         <v>90</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="19">
         <v>10</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="9">
         <f t="shared" ref="F4:F7" si="0">(D4-E4)/D4</f>
         <v>0.88888888888888884</v>
       </c>
@@ -4753,215 +4920,700 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="B5" s="28" t="s">
+    <row r="5" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="23">
         <v>1</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="20">
         <v>40</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="19">
         <v>3</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="9">
         <f t="shared" si="0"/>
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="B6" s="28" t="s">
+    <row r="6" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="19">
         <v>0.4</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="19">
         <v>25</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="19">
         <v>5</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="9">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="B7" s="28" t="s">
+    <row r="7" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="19">
         <v>1</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="19">
         <v>120</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="19">
         <v>10</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="9">
         <f t="shared" si="0"/>
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-    </row>
-    <row r="10" spans="2:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="26" t="s">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="43" t="s">
         <v>94</v>
       </c>
       <c r="C10" s="9">
         <f>(5/5)*(SUM(F3:F7)/5)</f>
         <v>0.83944444444444444</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="35" t="s">
         <v>110</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="B11" s="26" t="s">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="43" t="s">
         <v>95</v>
       </c>
       <c r="C11" s="9">
         <f>SUM(I4:L4)/4</f>
         <v>0.74143835616438358</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="35" t="s">
         <v>111</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="B12" s="26" t="s">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="43" t="s">
         <v>96</v>
       </c>
       <c r="C12" s="1">
         <f>1/1</f>
         <v>1</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="17">
         <f>J3/I3</f>
         <v>0.11415525114155251</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="B13" s="26" t="s">
+    <row r="13" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="18">
         <f>COUNTA(C18:C21)/4</f>
         <v>1</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="35" t="s">
         <v>113</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="B14" s="26" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="43" t="s">
         <v>98</v>
       </c>
       <c r="C14" s="9">
         <f>SUM(J10:J15)/6</f>
         <v>0.50471841704718423</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="17">
         <f>J3/I3</f>
         <v>0.11415525114155251</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="B15" s="39" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C15" s="27">
         <f>SQRT((C10^2+C11^2+C12^2+C13^2+C14^2)/5)</f>
         <v>0.83775157317751436</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="35" t="s">
         <v>115</v>
       </c>
       <c r="J15" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="B17" s="28" t="s">
+    <row r="17" spans="2:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B17" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="46" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="B18" s="36" t="s">
+    <row r="18" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B19" s="36" t="s">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="B20" s="36" t="s">
+    <row r="20" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="B21" s="36" t="s">
+    <row r="21" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="37"/>
-      <c r="C22" s="38"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="37"/>
-      <c r="C23" s="38"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC53E2BC-7671-4D83-9750-DBF23415D93E}">
+  <dimension ref="B2:U24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10" customWidth="1"/>
+    <col min="6" max="6" width="8.75" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.75" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B2" s="35"/>
+      <c r="C2" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B3" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="37">
+        <v>65000</v>
+      </c>
+      <c r="D3" s="37">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B4" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="37">
+        <v>15000</v>
+      </c>
+      <c r="D4" s="37">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B5" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="38">
+        <f>C4-C3</f>
+        <v>-50000</v>
+      </c>
+      <c r="D5" s="39">
+        <f>D4-D3</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="9">
+        <f>1+(C5/(C5-D5))</f>
+        <v>1.8333333333333335</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="F10" s="49">
+        <v>1</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="49">
+        <v>5</v>
+      </c>
+      <c r="K10" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="F11" s="49"/>
+      <c r="G11" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="49"/>
+      <c r="K11" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" s="12">
+        <v>1</v>
+      </c>
+      <c r="N11" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="O11" s="1">
+        <f>0/$O$19</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="R11" s="1">
+        <f>2.7^(-O11*$O$19)</f>
+        <v>1</v>
+      </c>
+      <c r="T11" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
+        <f>1-R11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="F12" s="49"/>
+      <c r="G12" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="49"/>
+      <c r="K12" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="N12" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" ref="O12:O18" si="0">0/$O$19</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" ref="R12:R18" si="1">2.7^(-O12*$O$19)</f>
+        <v>1</v>
+      </c>
+      <c r="T12" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" ref="U12:U18" si="2">1-R12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="N13" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T13" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="U13" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="F14" s="49">
+        <v>2</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="49">
+        <v>6</v>
+      </c>
+      <c r="K14" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="N14" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="O14" s="1">
+        <f>1/$O$19</f>
+        <v>0.05</v>
+      </c>
+      <c r="Q14" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="R14" s="9">
+        <f t="shared" si="1"/>
+        <v>0.37037037037037035</v>
+      </c>
+      <c r="T14" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14" s="9">
+        <f t="shared" si="2"/>
+        <v>0.62962962962962965</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="F15" s="49"/>
+      <c r="G15" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="49"/>
+      <c r="K15" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="N15" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="O15" s="1">
+        <f>1/$O$19</f>
+        <v>0.05</v>
+      </c>
+      <c r="Q15" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="R15" s="9">
+        <f t="shared" si="1"/>
+        <v>0.37037037037037035</v>
+      </c>
+      <c r="T15" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" s="9">
+        <f t="shared" si="2"/>
+        <v>0.62962962962962965</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="F16" s="49"/>
+      <c r="G16" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="49"/>
+      <c r="K16" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="N16" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T16" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="U16" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="N17" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T17" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="U17" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F18" s="49">
+        <v>3</v>
+      </c>
+      <c r="G18" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" s="49">
+        <v>7</v>
+      </c>
+      <c r="K18" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="N18" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="O18" s="1">
+        <f>1/$O$19</f>
+        <v>0.05</v>
+      </c>
+      <c r="Q18" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="R18" s="9">
+        <f t="shared" si="1"/>
+        <v>0.37037037037037035</v>
+      </c>
+      <c r="T18" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="U18" s="9">
+        <f t="shared" si="2"/>
+        <v>0.62962962962962965</v>
+      </c>
+    </row>
+    <row r="19" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F19" s="49"/>
+      <c r="G19" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" s="49"/>
+      <c r="K19" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="N19" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="O19" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F20" s="49"/>
+      <c r="G20" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" s="49"/>
+      <c r="K20" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="N21" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="O21" s="1">
+        <f>(7+4+7)/3</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F22" s="49">
+        <v>4</v>
+      </c>
+      <c r="G22" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" s="12">
+        <v>7</v>
+      </c>
+      <c r="J22" s="49">
+        <v>8</v>
+      </c>
+      <c r="K22" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="L22" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F23" s="49"/>
+      <c r="G23" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" s="12">
+        <v>1</v>
+      </c>
+      <c r="J23" s="49"/>
+      <c r="K23" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="L23" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F24" s="49"/>
+      <c r="G24" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="J24" s="49"/>
+      <c r="K24" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="L24" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="F22:F24"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/KPIS/labs/labsGrachev.xlsx
+++ b/KPIS/labs/labsGrachev.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VlSU\KPIS\labs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gggchaseggg/Documents/GitHub/VlSU/KPIS/labs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C296D1DC-8F0B-40A7-9DC8-D210460634F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48227CC-6DB2-F941-B785-66A35AF3E127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{088274D3-D47E-AB49-ACE1-645B75D94739}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{088274D3-D47E-AB49-ACE1-645B75D94739}"/>
   </bookViews>
   <sheets>
     <sheet name="lab1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="lab3" sheetId="3" r:id="rId3"/>
     <sheet name="lab4" sheetId="4" r:id="rId4"/>
     <sheet name="lab5" sheetId="5" r:id="rId5"/>
+    <sheet name="lab6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="211">
   <si>
     <t>Q1</t>
   </si>
@@ -500,6 +501,204 @@
   <si>
     <t>T0</t>
   </si>
+  <si>
+    <t>¬A</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>¬B</t>
+  </si>
+  <si>
+    <t>¬C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>A^B</t>
+  </si>
+  <si>
+    <t>A^C</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>¬2</t>
+  </si>
+  <si>
+    <t>¬3</t>
+  </si>
+  <si>
+    <t>¬4</t>
+  </si>
+  <si>
+    <t>¬7</t>
+  </si>
+  <si>
+    <t>¬8</t>
+  </si>
+  <si>
+    <t>¬6</t>
+  </si>
+  <si>
+    <t>3^6^7</t>
+  </si>
+  <si>
+    <t>3^6^8</t>
+  </si>
+  <si>
+    <t>Фактор</t>
+  </si>
+  <si>
+    <t>Вес</t>
+  </si>
+  <si>
+    <t>Стандартное отклонение оценок</t>
+  </si>
+  <si>
+    <t>Достоверность показателей</t>
+  </si>
+  <si>
+    <t>Знакомство ПО</t>
+  </si>
+  <si>
+    <t>Достоверен</t>
+  </si>
+  <si>
+    <t>Удобство интерфейса</t>
+  </si>
+  <si>
+    <t>Простота использования</t>
+  </si>
+  <si>
+    <t>Быстрота работы</t>
+  </si>
+  <si>
+    <t>Стабильность работы</t>
+  </si>
+  <si>
+    <t>Быстрота развертывания</t>
+  </si>
+  <si>
+    <t>Автоматическая установка</t>
+  </si>
+  <si>
+    <t>Стоимость</t>
+  </si>
+  <si>
+    <t>Возможность удаленного администрирования</t>
+  </si>
+  <si>
+    <t>Недостоверен</t>
+  </si>
+  <si>
+    <t>Стоимость ЭВМ</t>
+  </si>
+  <si>
+    <t>период</t>
+  </si>
+  <si>
+    <t>Период</t>
+  </si>
+  <si>
+    <t>Срок эксплуатации</t>
+  </si>
+  <si>
+    <t>Стоимость ПО в год</t>
+  </si>
+  <si>
+    <t>Час работы специалиста по установке ПО</t>
+  </si>
+  <si>
+    <t>Время установки 1 копии</t>
+  </si>
+  <si>
+    <t>Количество копий</t>
+  </si>
+  <si>
+    <t>Время поддержки</t>
+  </si>
+  <si>
+    <t>Цена поддержки</t>
+  </si>
+  <si>
+    <t>Цена потерь</t>
+  </si>
+  <si>
+    <t>t восстановления</t>
+  </si>
+  <si>
+    <t>t ожидания</t>
+  </si>
+  <si>
+    <t>Затраты на оборудование</t>
+  </si>
+  <si>
+    <t>Затраты на ПО</t>
+  </si>
+  <si>
+    <t>Затраты на установку ПО</t>
+  </si>
+  <si>
+    <t>Стоимость поддержки</t>
+  </si>
+  <si>
+    <t>Потери ввиду неработоспособности</t>
+  </si>
+  <si>
+    <t>WebStorm</t>
+  </si>
+  <si>
+    <t>VSCode</t>
+  </si>
+  <si>
+    <t>Количество переустановок</t>
+  </si>
+  <si>
+    <t>Количество неисправностей</t>
+  </si>
+  <si>
+    <t>ТСО</t>
+  </si>
+  <si>
+    <t>ПО</t>
+  </si>
+  <si>
+    <t>Удобство интерфейса (UI)</t>
+  </si>
+  <si>
+    <t>Удобство интерфейса инструментов</t>
+  </si>
+  <si>
+    <t>Скорость работы системы</t>
+  </si>
+  <si>
+    <t>Важность</t>
+  </si>
+  <si>
+    <r>
+      <t>В</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>потерь</t>
+    </r>
+  </si>
+  <si>
+    <t>Cab</t>
+  </si>
 </sst>
 </file>
 
@@ -509,7 +708,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -599,8 +798,27 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -641,8 +859,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -737,13 +979,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -816,27 +1098,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -869,10 +1130,114 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1104,7 +1469,7 @@
                   <c:v>0.83944444444444444</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.74143835616438358</c:v>
+                  <c:v>0.67500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>1</c:v>
@@ -2151,15 +2516,15 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" customWidth="1"/>
-    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -2174,35 +2539,35 @@
         <v>8</v>
       </c>
       <c r="G1" s="1"/>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="29" t="s">
+      <c r="T1" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-    </row>
-    <row r="2" spans="1:28" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+    </row>
+    <row r="2" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2276,7 +2641,7 @@
       </c>
       <c r="AB2" s="2"/>
     </row>
-    <row r="3" spans="1:28" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2340,7 +2705,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="36" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2404,7 +2769,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="72" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2450,7 +2815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="36" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2496,7 +2861,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="36" x14ac:dyDescent="0.2">
       <c r="T7" s="2" t="s">
         <v>26</v>
       </c>
@@ -2511,7 +2876,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="54" x14ac:dyDescent="0.2">
       <c r="T8" s="2" t="s">
         <v>28</v>
       </c>
@@ -2526,7 +2891,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="54" x14ac:dyDescent="0.2">
       <c r="T9" s="2" t="s">
         <v>30</v>
       </c>
@@ -2541,7 +2906,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="18" x14ac:dyDescent="0.2">
       <c r="T10" s="2" t="s">
         <v>32</v>
       </c>
@@ -2556,7 +2921,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="36" x14ac:dyDescent="0.2">
       <c r="T11" s="2" t="s">
         <v>34</v>
       </c>
@@ -2571,7 +2936,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="36" x14ac:dyDescent="0.2">
       <c r="T12" s="2" t="s">
         <v>36</v>
       </c>
@@ -2586,7 +2951,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="36" x14ac:dyDescent="0.2">
       <c r="T13" s="2" t="s">
         <v>38</v>
       </c>
@@ -2601,7 +2966,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="36" x14ac:dyDescent="0.2">
       <c r="T14" s="2" t="s">
         <v>40</v>
       </c>
@@ -2616,7 +2981,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="36" x14ac:dyDescent="0.2">
       <c r="T15" s="2" t="s">
         <v>42</v>
       </c>
@@ -2631,7 +2996,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="18" x14ac:dyDescent="0.2">
       <c r="T16" s="2" t="s">
         <v>44</v>
       </c>
@@ -2646,7 +3011,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="20:28" ht="33" x14ac:dyDescent="0.25">
+    <row r="17" spans="20:28" ht="36" x14ac:dyDescent="0.2">
       <c r="T17" s="2" t="s">
         <v>46</v>
       </c>
@@ -2680,32 +3045,32 @@
       <selection activeCell="L2" sqref="L2:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.125" customWidth="1"/>
-    <col min="2" max="8" width="3.625" customWidth="1"/>
-    <col min="9" max="9" width="25.625" customWidth="1"/>
-    <col min="11" max="11" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="3.625" customWidth="1"/>
-    <col min="16" max="20" width="8.875" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="2" max="8" width="3.6640625" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" customWidth="1"/>
+    <col min="11" max="11" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="3.6640625" customWidth="1"/>
+    <col min="16" max="20" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-    </row>
-    <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+    </row>
+    <row r="2" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2">
         <v>7</v>
@@ -2736,7 +3101,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -2758,7 +3123,7 @@
         <v>0.72666666666666668</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2780,7 +3145,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="36" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -2802,7 +3167,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -2817,7 +3182,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -2832,7 +3197,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
@@ -2847,7 +3212,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -2862,7 +3227,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -2877,7 +3242,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
@@ -2892,7 +3257,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
@@ -2907,27 +3272,27 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="K15" s="30" t="s">
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="K15" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="32"/>
-    </row>
-    <row r="16" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="50"/>
+    </row>
+    <row r="16" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2">
         <v>7</v>
@@ -2972,7 +3337,7 @@
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
     </row>
-    <row r="17" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -3009,7 +3374,7 @@
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
     </row>
-    <row r="18" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -3046,7 +3411,7 @@
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
     </row>
-    <row r="19" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="36" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -3083,7 +3448,7 @@
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
     </row>
-    <row r="20" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -3120,7 +3485,7 @@
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
     </row>
-    <row r="21" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -3157,7 +3522,7 @@
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
     </row>
-    <row r="22" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
@@ -3194,7 +3559,7 @@
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
     </row>
-    <row r="23" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>36</v>
       </c>
@@ -3231,7 +3596,7 @@
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
     </row>
-    <row r="24" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>38</v>
       </c>
@@ -3268,7 +3633,7 @@
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
     </row>
-    <row r="25" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
@@ -3307,7 +3672,7 @@
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
     </row>
-    <row r="26" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
@@ -3347,27 +3712,27 @@
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="K28" s="30" t="s">
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="K28" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="32"/>
-    </row>
-    <row r="29" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="50"/>
+    </row>
+    <row r="29" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2">
         <v>7</v>
@@ -3412,7 +3777,7 @@
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
     </row>
-    <row r="30" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>18</v>
       </c>
@@ -3449,7 +3814,7 @@
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
     </row>
-    <row r="31" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
@@ -3486,7 +3851,7 @@
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
     </row>
-    <row r="32" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="36" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>22</v>
       </c>
@@ -3523,7 +3888,7 @@
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
     </row>
-    <row r="33" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>24</v>
       </c>
@@ -3560,7 +3925,7 @@
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
     </row>
-    <row r="34" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>28</v>
       </c>
@@ -3597,7 +3962,7 @@
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
     </row>
-    <row r="35" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>30</v>
       </c>
@@ -3634,7 +3999,7 @@
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
     </row>
-    <row r="36" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -3671,7 +4036,7 @@
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
     </row>
-    <row r="37" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
@@ -3708,7 +4073,7 @@
       <c r="S37" s="6"/>
       <c r="T37" s="6"/>
     </row>
-    <row r="38" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>42</v>
       </c>
@@ -3747,7 +4112,7 @@
       <c r="S38" s="6"/>
       <c r="T38" s="6"/>
     </row>
-    <row r="39" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>46</v>
       </c>
@@ -3787,27 +4152,27 @@
       <c r="S39" s="6"/>
       <c r="T39" s="6"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A41" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="K41" s="30" t="s">
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="K41" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="32"/>
-    </row>
-    <row r="42" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L41" s="49"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="50"/>
+    </row>
+    <row r="42" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2">
         <v>7</v>
@@ -3852,7 +4217,7 @@
       <c r="S42" s="6"/>
       <c r="T42" s="6"/>
     </row>
-    <row r="43" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>18</v>
       </c>
@@ -3889,7 +4254,7 @@
       <c r="S43" s="6"/>
       <c r="T43" s="6"/>
     </row>
-    <row r="44" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>20</v>
       </c>
@@ -3926,7 +4291,7 @@
       <c r="S44" s="6"/>
       <c r="T44" s="6"/>
     </row>
-    <row r="45" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="36" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>22</v>
       </c>
@@ -3963,7 +4328,7 @@
       <c r="S45" s="6"/>
       <c r="T45" s="6"/>
     </row>
-    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>24</v>
       </c>
@@ -4000,7 +4365,7 @@
       <c r="S46" s="6"/>
       <c r="T46" s="6"/>
     </row>
-    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>28</v>
       </c>
@@ -4037,7 +4402,7 @@
       <c r="S47" s="6"/>
       <c r="T47" s="6"/>
     </row>
-    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>30</v>
       </c>
@@ -4074,7 +4439,7 @@
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
     </row>
-    <row r="49" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>36</v>
       </c>
@@ -4111,7 +4476,7 @@
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
     </row>
-    <row r="50" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>38</v>
       </c>
@@ -4148,7 +4513,7 @@
       <c r="S50" s="6"/>
       <c r="T50" s="6"/>
     </row>
-    <row r="51" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>42</v>
       </c>
@@ -4187,7 +4552,7 @@
       <c r="S51" s="6"/>
       <c r="T51" s="6"/>
     </row>
-    <row r="52" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
@@ -4246,49 +4611,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42BB530-6AA0-AC41-ADE5-6AF31CCEBAB9}">
   <dimension ref="B2:T16"/>
   <sheetViews>
-    <sheetView topLeftCell="I3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="I3" zoomScale="50" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="6.625" customWidth="1"/>
-    <col min="11" max="11" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="6.6640625" customWidth="1"/>
+    <col min="11" max="11" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B2" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="K2" s="33" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="K2" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34" t="s">
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="P2" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="Q2" s="34" t="s">
+      <c r="Q2" s="52" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="2:20" ht="154.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="33"/>
+    <row r="3" spans="2:20" ht="155" x14ac:dyDescent="0.2">
+      <c r="B3" s="51"/>
       <c r="C3" s="11" t="s">
         <v>9</v>
       </c>
@@ -4304,7 +4669,7 @@
       <c r="G3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="33"/>
+      <c r="K3" s="51"/>
       <c r="L3" s="11" t="s">
         <v>6</v>
       </c>
@@ -4314,11 +4679,11 @@
       <c r="N3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>64</v>
       </c>
@@ -4362,7 +4727,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
         <v>70</v>
       </c>
@@ -4406,7 +4771,7 @@
         <v>12.25</v>
       </c>
     </row>
-    <row r="6" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" ht="34" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
         <v>73</v>
       </c>
@@ -4450,7 +4815,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="7" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" ht="34" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
         <v>65</v>
       </c>
@@ -4494,7 +4859,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" ht="34" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
         <v>66</v>
       </c>
@@ -4538,7 +4903,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" ht="34" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
         <v>67</v>
       </c>
@@ -4582,7 +4947,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
         <v>68</v>
       </c>
@@ -4626,7 +4991,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
         <v>69</v>
       </c>
@@ -4670,7 +5035,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" ht="51" x14ac:dyDescent="0.2">
       <c r="B12" s="13" t="s">
         <v>75</v>
       </c>
@@ -4714,7 +5079,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" ht="34" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
         <v>74</v>
       </c>
@@ -4758,7 +5123,7 @@
         <v>30.25</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="N14" s="1" t="s">
         <v>80</v>
       </c>
@@ -4774,7 +5139,7 @@
         <v>96.5</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" ht="34" x14ac:dyDescent="0.2">
       <c r="O15" s="14"/>
       <c r="S15" s="10" t="s">
         <v>82</v>
@@ -4784,7 +5149,7 @@
         <v>0.12996632996632998</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" ht="34" x14ac:dyDescent="0.2">
       <c r="S16" s="10" t="s">
         <v>83</v>
       </c>
@@ -4812,53 +5177,53 @@
   <dimension ref="B2:L23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="63" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
+    <row r="2" spans="2:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="B2" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="J2" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="47" t="s">
+      <c r="L2" s="40" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="41" t="s">
+    <row r="3" spans="2:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B3" s="34" t="s">
         <v>88</v>
       </c>
       <c r="C3" s="21">
@@ -4889,8 +5254,8 @@
         <v>8.76</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="42" t="s">
+    <row r="4" spans="2:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B4" s="35" t="s">
         <v>89</v>
       </c>
       <c r="C4" s="19">
@@ -4910,8 +5275,8 @@
         <v>1</v>
       </c>
       <c r="J4" s="9">
-        <f>(I3-J3*K3)/I3</f>
-        <v>0.96575342465753422</v>
+        <f>(I3-J3*K3*L3)/I3</f>
+        <v>0.7</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
@@ -4920,8 +5285,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="41" t="s">
+    <row r="5" spans="2:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B5" s="34" t="s">
         <v>90</v>
       </c>
       <c r="C5" s="23">
@@ -4938,8 +5303,8 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="41" t="s">
+    <row r="6" spans="2:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B6" s="34" t="s">
         <v>93</v>
       </c>
       <c r="C6" s="19">
@@ -4956,8 +5321,8 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="41" t="s">
+    <row r="7" spans="2:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B7" s="34" t="s">
         <v>91</v>
       </c>
       <c r="C7" s="19">
@@ -4974,57 +5339,57 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="43" t="s">
+    <row r="10" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" s="36" t="s">
         <v>94</v>
       </c>
       <c r="C10" s="9">
         <f>(5/5)*(SUM(F3:F7)/5)</f>
         <v>0.83944444444444444</v>
       </c>
-      <c r="I10" s="35" t="s">
+      <c r="I10" s="28" t="s">
         <v>110</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="43" t="s">
+    <row r="11" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B11" s="36" t="s">
         <v>95</v>
       </c>
       <c r="C11" s="9">
         <f>SUM(I4:L4)/4</f>
-        <v>0.74143835616438358</v>
-      </c>
-      <c r="I11" s="35" t="s">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="I11" s="28" t="s">
         <v>111</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="43" t="s">
+    <row r="12" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B12" s="36" t="s">
         <v>96</v>
       </c>
       <c r="C12" s="1">
         <f>1/1</f>
         <v>1</v>
       </c>
-      <c r="I12" s="35" t="s">
+      <c r="I12" s="28" t="s">
         <v>112</v>
       </c>
       <c r="J12" s="17">
@@ -5032,30 +5397,30 @@
         <v>0.11415525114155251</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="43" t="s">
+    <row r="13" spans="2:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B13" s="36" t="s">
         <v>97</v>
       </c>
       <c r="C13" s="18">
         <f>COUNTA(C18:C21)/4</f>
         <v>1</v>
       </c>
-      <c r="I13" s="35" t="s">
+      <c r="I13" s="28" t="s">
         <v>113</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="43" t="s">
+    <row r="14" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B14" s="36" t="s">
         <v>98</v>
       </c>
       <c r="C14" s="9">
         <f>SUM(J10:J15)/6</f>
         <v>0.50471841704718423</v>
       </c>
-      <c r="I14" s="35" t="s">
+      <c r="I14" s="28" t="s">
         <v>114</v>
       </c>
       <c r="J14" s="17">
@@ -5063,66 +5428,66 @@
         <v>0.11415525114155251</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="45" t="s">
+    <row r="15" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B15" s="38" t="s">
         <v>116</v>
       </c>
       <c r="C15" s="27">
         <f>SQRT((C10^2+C11^2+C12^2+C13^2+C14^2)/5)</f>
-        <v>0.83775157317751436</v>
-      </c>
-      <c r="I15" s="35" t="s">
+        <v>0.82644209183889672</v>
+      </c>
+      <c r="I15" s="28" t="s">
         <v>115</v>
       </c>
       <c r="J15" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="41" t="s">
+    <row r="17" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B17" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="39" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="44" t="s">
+    <row r="18" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B18" s="37" t="s">
         <v>106</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="44" t="s">
+    <row r="19" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B19" s="37" t="s">
         <v>107</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="44" t="s">
+    <row r="20" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B20" s="37" t="s">
         <v>108</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="44" t="s">
+    <row r="21" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B21" s="37" t="s">
         <v>109</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="25"/>
       <c r="C22" s="26"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="25"/>
       <c r="C23" s="26"/>
     </row>
@@ -5135,70 +5500,73 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC53E2BC-7671-4D83-9750-DBF23415D93E}">
-  <dimension ref="B2:U24"/>
+  <dimension ref="B2:AC65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView topLeftCell="E2" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA58" sqref="AA58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10" customWidth="1"/>
-    <col min="6" max="6" width="8.75" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.75" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="8.83203125" customWidth="1"/>
+    <col min="23" max="28" width="3.33203125" customWidth="1"/>
+    <col min="29" max="29" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B2" s="35"/>
-      <c r="C2" s="36" t="s">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B2" s="28"/>
+      <c r="C2" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="29" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="35" t="s">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B3" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="30">
         <v>65000</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="30">
         <v>65000</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="35" t="s">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B4" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="30">
         <v>15000</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="30">
         <v>75000</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B5" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="31">
         <f>C4-C3</f>
         <v>-50000</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="32">
         <f>D4-D3</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="35" t="s">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B7" s="28" t="s">
         <v>122</v>
       </c>
       <c r="C7" s="9">
@@ -5206,56 +5574,56 @@
         <v>1.8333333333333335</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="F10" s="49">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="F10" s="56">
         <v>1</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="41" t="s">
         <v>123</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="49">
+      <c r="J10" s="56">
         <v>5</v>
       </c>
-      <c r="K10" s="48" t="s">
+      <c r="K10" s="41" t="s">
         <v>123</v>
       </c>
       <c r="L10" s="12">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="F11" s="49"/>
-      <c r="G11" s="48" t="s">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="F11" s="56"/>
+      <c r="G11" s="41" t="s">
         <v>124</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="J11" s="49"/>
-      <c r="K11" s="48" t="s">
+      <c r="J11" s="56"/>
+      <c r="K11" s="41" t="s">
         <v>124</v>
       </c>
       <c r="L11" s="12">
         <v>1</v>
       </c>
-      <c r="N11" s="35" t="s">
+      <c r="N11" s="28" t="s">
         <v>128</v>
       </c>
       <c r="O11" s="1">
         <f>0/$O$19</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="35" t="s">
+      <c r="Q11" s="28" t="s">
         <v>137</v>
       </c>
       <c r="R11" s="1">
         <f>2.7^(-O11*$O$19)</f>
         <v>1</v>
       </c>
-      <c r="T11" s="35" t="s">
+      <c r="T11" s="28" t="s">
         <v>0</v>
       </c>
       <c r="U11" s="1">
@@ -5263,36 +5631,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="F12" s="49"/>
-      <c r="G12" s="48" t="s">
+    <row r="12" spans="2:23" ht="34" x14ac:dyDescent="0.2">
+      <c r="F12" s="56"/>
+      <c r="G12" s="41" t="s">
         <v>125</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="J12" s="49"/>
-      <c r="K12" s="48" t="s">
+      <c r="J12" s="56"/>
+      <c r="K12" s="41" t="s">
         <v>125</v>
       </c>
       <c r="L12" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="N12" s="35" t="s">
+      <c r="N12" s="28" t="s">
         <v>129</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" ref="O12:O18" si="0">0/$O$19</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="35" t="s">
+        <f t="shared" ref="O12:O17" si="0">0/$O$19</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="28" t="s">
         <v>138</v>
       </c>
       <c r="R12" s="1">
         <f t="shared" ref="R12:R18" si="1">2.7^(-O12*$O$19)</f>
         <v>1</v>
       </c>
-      <c r="T12" s="35" t="s">
+      <c r="T12" s="28" t="s">
         <v>1</v>
       </c>
       <c r="U12" s="1">
@@ -5300,22 +5668,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="N13" s="35" t="s">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="N13" s="28" t="s">
         <v>130</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="35" t="s">
+      <c r="Q13" s="28" t="s">
         <v>139</v>
       </c>
       <c r="R13" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T13" s="35" t="s">
+      <c r="T13" s="28" t="s">
         <v>2</v>
       </c>
       <c r="U13" s="1">
@@ -5323,114 +5691,118 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="F14" s="49">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="F14" s="56">
         <v>2</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="41" t="s">
         <v>123</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="J14" s="49">
+      <c r="J14" s="56">
         <v>6</v>
       </c>
-      <c r="K14" s="48" t="s">
+      <c r="K14" s="41" t="s">
         <v>123</v>
       </c>
       <c r="L14" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="N14" s="35" t="s">
+      <c r="N14" s="28" t="s">
         <v>131</v>
       </c>
       <c r="O14" s="1">
         <f>1/$O$19</f>
         <v>0.05</v>
       </c>
-      <c r="Q14" s="35" t="s">
+      <c r="Q14" s="28" t="s">
         <v>140</v>
       </c>
       <c r="R14" s="9">
         <f t="shared" si="1"/>
         <v>0.37037037037037035</v>
       </c>
-      <c r="T14" s="35" t="s">
+      <c r="T14" s="28" t="s">
         <v>3</v>
       </c>
       <c r="U14" s="9">
         <f t="shared" si="2"/>
         <v>0.62962962962962965</v>
       </c>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="F15" s="49"/>
-      <c r="G15" s="48" t="s">
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="F15" s="56"/>
+      <c r="G15" s="41" t="s">
         <v>124</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="J15" s="49"/>
-      <c r="K15" s="48" t="s">
+      <c r="J15" s="56"/>
+      <c r="K15" s="41" t="s">
         <v>124</v>
       </c>
       <c r="L15" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="N15" s="35" t="s">
+      <c r="N15" s="28" t="s">
         <v>132</v>
       </c>
       <c r="O15" s="1">
         <f>1/$O$19</f>
         <v>0.05</v>
       </c>
-      <c r="Q15" s="35" t="s">
+      <c r="Q15" s="28" t="s">
         <v>141</v>
       </c>
       <c r="R15" s="9">
         <f t="shared" si="1"/>
         <v>0.37037037037037035</v>
       </c>
-      <c r="T15" s="35" t="s">
+      <c r="T15" s="28" t="s">
         <v>4</v>
       </c>
       <c r="U15" s="9">
         <f t="shared" si="2"/>
         <v>0.62962962962962965</v>
       </c>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="F16" s="49"/>
-      <c r="G16" s="48" t="s">
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="F16" s="56"/>
+      <c r="G16" s="41" t="s">
         <v>125</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="J16" s="49"/>
-      <c r="K16" s="48" t="s">
+      <c r="J16" s="56"/>
+      <c r="K16" s="41" t="s">
         <v>125</v>
       </c>
       <c r="L16" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="N16" s="35" t="s">
+      <c r="N16" s="28" t="s">
         <v>133</v>
       </c>
       <c r="O16" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="35" t="s">
+      <c r="Q16" s="28" t="s">
         <v>142</v>
       </c>
       <c r="R16" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T16" s="35" t="s">
+      <c r="T16" s="28" t="s">
         <v>145</v>
       </c>
       <c r="U16" s="1">
@@ -5438,22 +5810,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="N17" s="35" t="s">
+    <row r="17" spans="6:28" x14ac:dyDescent="0.2">
+      <c r="N17" s="28" t="s">
         <v>134</v>
       </c>
       <c r="O17" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="35" t="s">
+      <c r="Q17" s="28" t="s">
         <v>143</v>
       </c>
       <c r="R17" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T17" s="35" t="s">
+      <c r="T17" s="28" t="s">
         <v>146</v>
       </c>
       <c r="U17" s="1">
@@ -5461,87 +5833,89 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F18" s="49">
+    <row r="18" spans="6:28" x14ac:dyDescent="0.2">
+      <c r="F18" s="56">
         <v>3</v>
       </c>
-      <c r="G18" s="48" t="s">
+      <c r="G18" s="41" t="s">
         <v>123</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="J18" s="49">
+      <c r="J18" s="56">
         <v>7</v>
       </c>
-      <c r="K18" s="48" t="s">
+      <c r="K18" s="41" t="s">
         <v>123</v>
       </c>
       <c r="L18" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="N18" s="35" t="s">
+      <c r="N18" s="28" t="s">
         <v>135</v>
       </c>
       <c r="O18" s="1">
         <f>1/$O$19</f>
         <v>0.05</v>
       </c>
-      <c r="Q18" s="35" t="s">
+      <c r="Q18" s="28" t="s">
         <v>144</v>
       </c>
       <c r="R18" s="9">
         <f t="shared" si="1"/>
         <v>0.37037037037037035</v>
       </c>
-      <c r="T18" s="35" t="s">
+      <c r="T18" s="28" t="s">
         <v>147</v>
       </c>
       <c r="U18" s="9">
         <f t="shared" si="2"/>
         <v>0.62962962962962965</v>
       </c>
-    </row>
-    <row r="19" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F19" s="49"/>
-      <c r="G19" s="48" t="s">
+      <c r="V18" s="45"/>
+      <c r="W18" s="45"/>
+    </row>
+    <row r="19" spans="6:28" x14ac:dyDescent="0.2">
+      <c r="F19" s="56"/>
+      <c r="G19" s="41" t="s">
         <v>124</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="J19" s="49"/>
-      <c r="K19" s="48" t="s">
+      <c r="J19" s="56"/>
+      <c r="K19" s="41" t="s">
         <v>124</v>
       </c>
       <c r="L19" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="N19" s="50" t="s">
+      <c r="N19" s="42" t="s">
         <v>136</v>
       </c>
       <c r="O19" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F20" s="49"/>
-      <c r="G20" s="48" t="s">
+    <row r="20" spans="6:28" x14ac:dyDescent="0.2">
+      <c r="F20" s="56"/>
+      <c r="G20" s="41" t="s">
         <v>125</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="J20" s="49"/>
-      <c r="K20" s="48" t="s">
+      <c r="J20" s="56"/>
+      <c r="K20" s="41" t="s">
         <v>125</v>
       </c>
       <c r="L20" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="N21" s="50" t="s">
+    <row r="21" spans="6:28" x14ac:dyDescent="0.2">
+      <c r="N21" s="42" t="s">
         <v>148</v>
       </c>
       <c r="O21" s="1">
@@ -5549,71 +5923,1340 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F22" s="49">
+    <row r="22" spans="6:28" x14ac:dyDescent="0.2">
+      <c r="F22" s="56">
         <v>4</v>
       </c>
-      <c r="G22" s="48" t="s">
+      <c r="G22" s="41" t="s">
         <v>123</v>
       </c>
       <c r="H22" s="12">
         <v>7</v>
       </c>
-      <c r="J22" s="49">
+      <c r="J22" s="56">
         <v>8</v>
       </c>
-      <c r="K22" s="48" t="s">
+      <c r="K22" s="41" t="s">
         <v>123</v>
       </c>
       <c r="L22" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F23" s="49"/>
-      <c r="G23" s="48" t="s">
+    <row r="23" spans="6:28" x14ac:dyDescent="0.2">
+      <c r="F23" s="56"/>
+      <c r="G23" s="41" t="s">
         <v>124</v>
       </c>
       <c r="H23" s="12">
         <v>1</v>
       </c>
-      <c r="J23" s="49"/>
-      <c r="K23" s="48" t="s">
+      <c r="J23" s="56"/>
+      <c r="K23" s="41" t="s">
         <v>124</v>
       </c>
       <c r="L23" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F24" s="49"/>
-      <c r="G24" s="48" t="s">
+    <row r="24" spans="6:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="F24" s="56"/>
+      <c r="G24" s="41" t="s">
         <v>125</v>
       </c>
       <c r="H24" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="J24" s="49"/>
-      <c r="K24" s="48" t="s">
+      <c r="J24" s="56"/>
+      <c r="K24" s="41" t="s">
         <v>125</v>
       </c>
       <c r="L24" s="24" t="s">
         <v>127</v>
       </c>
     </row>
+    <row r="26" spans="6:28" x14ac:dyDescent="0.2">
+      <c r="W26" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="X26" s="41"/>
+      <c r="Y26" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z26" s="55"/>
+      <c r="AA26" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB26" s="55"/>
+    </row>
+    <row r="27" spans="6:28" x14ac:dyDescent="0.2">
+      <c r="W27" s="57"/>
+      <c r="X27" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y27" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="6:28" x14ac:dyDescent="0.2">
+      <c r="W28" s="57"/>
+      <c r="X28" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y28" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="44">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="44">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="6:28" x14ac:dyDescent="0.2">
+      <c r="W29" s="57"/>
+      <c r="X29" s="41"/>
+      <c r="Y29" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z29" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA29" s="56"/>
+      <c r="AB29" s="43" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="6:28" x14ac:dyDescent="0.2">
+      <c r="W30" s="57"/>
+      <c r="X30" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y30" s="54"/>
+      <c r="Z30" s="54"/>
+      <c r="AA30" s="54"/>
+      <c r="AB30" s="54"/>
+    </row>
+    <row r="31" spans="6:28" x14ac:dyDescent="0.2">
+      <c r="W31" s="57"/>
+    </row>
+    <row r="32" spans="6:28" x14ac:dyDescent="0.2">
+      <c r="W32" s="57"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z32" s="55"/>
+      <c r="AA32" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB32" s="55"/>
+    </row>
+    <row r="33" spans="23:28" x14ac:dyDescent="0.2">
+      <c r="W33" s="57"/>
+      <c r="X33" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y33" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="23:28" x14ac:dyDescent="0.2">
+      <c r="W34" s="57"/>
+      <c r="X34" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y34" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="44">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="23:28" x14ac:dyDescent="0.2">
+      <c r="W35" s="57"/>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z35" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA35" s="56"/>
+      <c r="AB35" s="43" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="23:28" x14ac:dyDescent="0.2">
+      <c r="W36" s="57"/>
+      <c r="X36" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y36" s="54"/>
+      <c r="Z36" s="54"/>
+      <c r="AA36" s="54"/>
+      <c r="AB36" s="54"/>
+    </row>
+    <row r="39" spans="23:28" x14ac:dyDescent="0.2">
+      <c r="W39" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="X39" s="41"/>
+      <c r="Y39" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z39" s="55"/>
+      <c r="AA39" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB39" s="55"/>
+    </row>
+    <row r="40" spans="23:28" x14ac:dyDescent="0.2">
+      <c r="W40" s="57"/>
+      <c r="X40" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y40" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="23:28" x14ac:dyDescent="0.2">
+      <c r="W41" s="57"/>
+      <c r="X41" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y41" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="44">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="44">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="23:28" x14ac:dyDescent="0.2">
+      <c r="W42" s="57"/>
+      <c r="X42" s="41"/>
+      <c r="Y42" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z42" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA42" s="56"/>
+      <c r="AB42" s="43" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="23:28" x14ac:dyDescent="0.2">
+      <c r="W43" s="57"/>
+      <c r="X43" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y43" s="54"/>
+      <c r="Z43" s="54"/>
+      <c r="AA43" s="54"/>
+      <c r="AB43" s="54"/>
+    </row>
+    <row r="44" spans="23:28" x14ac:dyDescent="0.2">
+      <c r="W44" s="57"/>
+    </row>
+    <row r="45" spans="23:28" x14ac:dyDescent="0.2">
+      <c r="W45" s="57"/>
+      <c r="X45" s="41"/>
+      <c r="Y45" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z45" s="55"/>
+      <c r="AA45" s="55">
+        <v>3</v>
+      </c>
+      <c r="AB45" s="55"/>
+    </row>
+    <row r="46" spans="23:28" x14ac:dyDescent="0.2">
+      <c r="W46" s="57"/>
+      <c r="X46" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y46" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="23:28" x14ac:dyDescent="0.2">
+      <c r="W47" s="57"/>
+      <c r="X47" s="41">
+        <v>2</v>
+      </c>
+      <c r="Y47" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="44">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="23:28" x14ac:dyDescent="0.2">
+      <c r="W48" s="57"/>
+      <c r="X48" s="41"/>
+      <c r="Y48" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z48" s="56">
+        <v>4</v>
+      </c>
+      <c r="AA48" s="56"/>
+      <c r="AB48" s="43" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="23:29" x14ac:dyDescent="0.2">
+      <c r="W49" s="57"/>
+      <c r="X49" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y49" s="54"/>
+      <c r="Z49" s="54"/>
+      <c r="AA49" s="54"/>
+      <c r="AB49" s="54"/>
+    </row>
+    <row r="51" spans="23:29" x14ac:dyDescent="0.2">
+      <c r="W51" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="X51" s="12"/>
+      <c r="Y51" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z51" s="55"/>
+      <c r="AA51" s="55">
+        <v>7</v>
+      </c>
+      <c r="AB51" s="55"/>
+      <c r="AC51" s="12"/>
+    </row>
+    <row r="52" spans="23:29" x14ac:dyDescent="0.2">
+      <c r="W52" s="57"/>
+      <c r="X52" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y52" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="41" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="23:29" x14ac:dyDescent="0.2">
+      <c r="W53" s="57"/>
+      <c r="X53" s="53"/>
+      <c r="Y53" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="23:29" x14ac:dyDescent="0.2">
+      <c r="W54" s="57"/>
+      <c r="X54" s="53">
+        <v>3</v>
+      </c>
+      <c r="Y54" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA54" s="44">
+        <v>1</v>
+      </c>
+      <c r="AB54" s="44">
+        <v>1</v>
+      </c>
+      <c r="AC54" s="53"/>
+    </row>
+    <row r="55" spans="23:29" x14ac:dyDescent="0.2">
+      <c r="W55" s="57"/>
+      <c r="X55" s="53"/>
+      <c r="Y55" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="41" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="23:29" x14ac:dyDescent="0.2">
+      <c r="W56" s="57"/>
+      <c r="X56" s="12"/>
+      <c r="Y56" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z56" s="56">
+        <v>8</v>
+      </c>
+      <c r="AA56" s="56"/>
+      <c r="AB56" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC56" s="12"/>
+    </row>
+    <row r="57" spans="23:29" x14ac:dyDescent="0.2">
+      <c r="W57" s="57"/>
+      <c r="X57" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y57" s="54"/>
+      <c r="Z57" s="54"/>
+      <c r="AA57" s="54"/>
+      <c r="AB57" s="54"/>
+      <c r="AC57" s="54"/>
+    </row>
+    <row r="58" spans="23:29" x14ac:dyDescent="0.2">
+      <c r="W58" s="57"/>
+    </row>
+    <row r="59" spans="23:29" x14ac:dyDescent="0.2">
+      <c r="W59" s="57"/>
+      <c r="X59" s="12"/>
+      <c r="Y59" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z59" s="55"/>
+      <c r="AA59" s="55">
+        <v>7</v>
+      </c>
+      <c r="AB59" s="55"/>
+      <c r="AC59" s="12"/>
+    </row>
+    <row r="60" spans="23:29" x14ac:dyDescent="0.2">
+      <c r="W60" s="57"/>
+      <c r="X60" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y60" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="41" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="61" spans="23:29" x14ac:dyDescent="0.2">
+      <c r="W61" s="57"/>
+      <c r="X61" s="53"/>
+      <c r="Y61" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="23:29" x14ac:dyDescent="0.2">
+      <c r="W62" s="57"/>
+      <c r="X62" s="53">
+        <v>3</v>
+      </c>
+      <c r="Y62" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="44">
+        <v>1</v>
+      </c>
+      <c r="AA62" s="44">
+        <v>1</v>
+      </c>
+      <c r="AB62" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC62" s="53"/>
+    </row>
+    <row r="63" spans="23:29" x14ac:dyDescent="0.2">
+      <c r="W63" s="57"/>
+      <c r="X63" s="53"/>
+      <c r="Y63" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="41" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="64" spans="23:29" x14ac:dyDescent="0.2">
+      <c r="W64" s="57"/>
+      <c r="X64" s="12"/>
+      <c r="Y64" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z64" s="56">
+        <v>8</v>
+      </c>
+      <c r="AA64" s="56"/>
+      <c r="AB64" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC64" s="12"/>
+    </row>
+    <row r="65" spans="23:29" x14ac:dyDescent="0.2">
+      <c r="W65" s="57"/>
+      <c r="X65" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y65" s="54"/>
+      <c r="Z65" s="54"/>
+      <c r="AA65" s="54"/>
+      <c r="AB65" s="54"/>
+      <c r="AC65" s="54"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="41">
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="AA32:AB32"/>
     <mergeCell ref="J10:J12"/>
     <mergeCell ref="J14:J16"/>
     <mergeCell ref="J18:J20"/>
     <mergeCell ref="J22:J24"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="X30:AB30"/>
+    <mergeCell ref="X36:AB36"/>
+    <mergeCell ref="W26:W36"/>
+    <mergeCell ref="W39:W49"/>
+    <mergeCell ref="Y39:Z39"/>
+    <mergeCell ref="AA39:AB39"/>
+    <mergeCell ref="Z42:AA42"/>
+    <mergeCell ref="X43:AB43"/>
+    <mergeCell ref="Y45:Z45"/>
+    <mergeCell ref="AA45:AB45"/>
+    <mergeCell ref="Z48:AA48"/>
+    <mergeCell ref="X49:AB49"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="Z64:AA64"/>
+    <mergeCell ref="X65:AC65"/>
+    <mergeCell ref="W51:W65"/>
+    <mergeCell ref="Y51:Z51"/>
+    <mergeCell ref="AA51:AB51"/>
+    <mergeCell ref="Z56:AA56"/>
+    <mergeCell ref="X52:X53"/>
+    <mergeCell ref="X54:X55"/>
+    <mergeCell ref="AC53:AC54"/>
+    <mergeCell ref="X57:AC57"/>
+    <mergeCell ref="Y59:Z59"/>
+    <mergeCell ref="AA59:AB59"/>
+    <mergeCell ref="X60:X61"/>
+    <mergeCell ref="AC61:AC62"/>
+    <mergeCell ref="X62:X63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F485DCA-14A7-7641-8A9B-AD46CCDECA4A}">
+  <dimension ref="A1:X21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="X4" sqref="X4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" customWidth="1"/>
+    <col min="17" max="17" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="J1" s="63"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="M1" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="P1" s="78" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q1" s="79" t="s">
+        <v>203</v>
+      </c>
+      <c r="R1" s="79" t="s">
+        <v>209</v>
+      </c>
+      <c r="S1" s="79" t="s">
+        <v>205</v>
+      </c>
+      <c r="T1" s="79" t="s">
+        <v>206</v>
+      </c>
+      <c r="U1" s="79" t="s">
+        <v>207</v>
+      </c>
+      <c r="V1" s="79" t="s">
+        <v>175</v>
+      </c>
+      <c r="W1" s="79" t="s">
+        <v>178</v>
+      </c>
+      <c r="X1" s="81" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="60">
+        <v>9</v>
+      </c>
+      <c r="C2" s="60">
+        <v>1</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2" s="64" t="s">
+        <v>181</v>
+      </c>
+      <c r="H2" s="65">
+        <v>96000</v>
+      </c>
+      <c r="I2" s="65">
+        <v>96000</v>
+      </c>
+      <c r="J2" s="66"/>
+      <c r="K2" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="L2" s="65">
+        <f>H2*(H3/H4)</f>
+        <v>57600</v>
+      </c>
+      <c r="M2" s="65">
+        <f>I2*(I3/I4)</f>
+        <v>57600</v>
+      </c>
+      <c r="P2" s="80" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q2" s="77">
+        <v>10</v>
+      </c>
+      <c r="R2" s="77">
+        <v>10</v>
+      </c>
+      <c r="S2" s="77">
+        <v>9</v>
+      </c>
+      <c r="T2" s="77">
+        <v>9</v>
+      </c>
+      <c r="U2" s="77">
+        <v>10</v>
+      </c>
+      <c r="V2" s="77">
+        <v>10</v>
+      </c>
+      <c r="W2" s="77">
+        <v>9</v>
+      </c>
+      <c r="X2" s="81"/>
+    </row>
+    <row r="3" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="60">
+        <v>10</v>
+      </c>
+      <c r="C3" s="60">
+        <v>1</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="H3" s="65">
+        <v>3</v>
+      </c>
+      <c r="I3" s="65">
+        <v>3</v>
+      </c>
+      <c r="J3" s="67"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="63"/>
+      <c r="P3" s="80" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q3" s="77">
+        <v>18</v>
+      </c>
+      <c r="R3" s="77">
+        <v>19</v>
+      </c>
+      <c r="S3" s="77">
+        <v>20</v>
+      </c>
+      <c r="T3" s="77">
+        <v>20</v>
+      </c>
+      <c r="U3" s="77">
+        <v>20</v>
+      </c>
+      <c r="V3" s="77">
+        <v>19</v>
+      </c>
+      <c r="W3" s="77">
+        <v>18</v>
+      </c>
+      <c r="X3" s="81">
+        <f>(S3+T3+U3+V3)/SUM(Q3:W3)</f>
+        <v>0.58955223880597019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="60">
+        <v>10</v>
+      </c>
+      <c r="C4" s="60">
+        <v>1</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" s="65">
+        <v>5</v>
+      </c>
+      <c r="I4" s="65">
+        <v>5</v>
+      </c>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="66"/>
+      <c r="P4" s="80" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="77">
+        <v>20</v>
+      </c>
+      <c r="R4" s="77">
+        <v>20</v>
+      </c>
+      <c r="S4" s="77">
+        <v>16</v>
+      </c>
+      <c r="T4" s="77">
+        <v>15</v>
+      </c>
+      <c r="U4" s="77">
+        <v>17</v>
+      </c>
+      <c r="V4" s="77">
+        <v>17</v>
+      </c>
+      <c r="W4" s="77">
+        <v>20</v>
+      </c>
+      <c r="X4" s="81">
+        <f>(Q4+R4+W4)/SUM(Q4:W4)</f>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" s="61" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="60">
+        <v>10</v>
+      </c>
+      <c r="C5" s="60">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="69"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="72"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="60">
+        <v>10</v>
+      </c>
+      <c r="C6" s="60">
+        <v>1</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="G6" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="H6" s="65">
+        <v>15000</v>
+      </c>
+      <c r="I6" s="65">
+        <v>0</v>
+      </c>
+      <c r="J6" s="66"/>
+      <c r="K6" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="L6" s="65">
+        <f>H6*H3</f>
+        <v>45000</v>
+      </c>
+      <c r="M6" s="65">
+        <f>I6*I3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="60">
+        <v>7</v>
+      </c>
+      <c r="C7" s="60">
+        <v>2.4</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" s="69"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="73"/>
+    </row>
+    <row r="8" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="60">
+        <v>7</v>
+      </c>
+      <c r="C8" s="60">
+        <v>3.98</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="G8" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="H8" s="65">
+        <v>500</v>
+      </c>
+      <c r="I8" s="65">
+        <v>300</v>
+      </c>
+      <c r="J8" s="66"/>
+      <c r="K8" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="L8" s="65">
+        <f>H8*H9*H10*(H3*H11+1)</f>
+        <v>7260</v>
+      </c>
+      <c r="M8" s="65">
+        <f>I8*I9*I10*(I3*I11+1)</f>
+        <v>3696</v>
+      </c>
+      <c r="P8" s="78" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q8" s="79" t="s">
+        <v>203</v>
+      </c>
+      <c r="R8" s="79" t="s">
+        <v>209</v>
+      </c>
+      <c r="S8" s="79" t="s">
+        <v>205</v>
+      </c>
+      <c r="T8" s="79" t="s">
+        <v>206</v>
+      </c>
+      <c r="U8" s="79" t="s">
+        <v>207</v>
+      </c>
+      <c r="V8" s="79" t="s">
+        <v>175</v>
+      </c>
+      <c r="W8" s="79" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="60">
+        <v>8</v>
+      </c>
+      <c r="C9" s="60">
+        <v>2.15</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" s="64" t="s">
+        <v>187</v>
+      </c>
+      <c r="H9" s="65">
+        <v>0.33</v>
+      </c>
+      <c r="I9" s="65">
+        <v>0.16</v>
+      </c>
+      <c r="J9" s="67"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="63"/>
+      <c r="P9" s="80" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q9" s="77">
+        <v>10</v>
+      </c>
+      <c r="R9" s="77">
+        <v>10</v>
+      </c>
+      <c r="S9" s="77">
+        <v>9</v>
+      </c>
+      <c r="T9" s="77">
+        <v>9</v>
+      </c>
+      <c r="U9" s="77">
+        <v>10</v>
+      </c>
+      <c r="V9" s="77">
+        <v>10</v>
+      </c>
+      <c r="W9" s="77">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="58"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="G10" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="H10" s="65">
+        <v>11</v>
+      </c>
+      <c r="I10" s="65">
+        <v>11</v>
+      </c>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="66"/>
+      <c r="P10" s="80" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q10" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="R10" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="S10" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="T10" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="U10" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="V10" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="W10" s="77" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="58"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="G11" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="H11" s="65">
+        <v>1</v>
+      </c>
+      <c r="I11" s="65">
+        <v>2</v>
+      </c>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="66"/>
+      <c r="P11" s="80" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q11" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="R11" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="S11" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="T11" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="U11" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="V11" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="W11" s="77" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="G12" s="69"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="72"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="G13" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="H13" s="65">
+        <v>3</v>
+      </c>
+      <c r="I13" s="65">
+        <v>3</v>
+      </c>
+      <c r="J13" s="66"/>
+      <c r="K13" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="L13" s="65">
+        <f>H13*H14</f>
+        <v>18000</v>
+      </c>
+      <c r="M13" s="65">
+        <f>I13*I14</f>
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="G14" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="H14" s="65">
+        <v>6000</v>
+      </c>
+      <c r="I14" s="65">
+        <v>9000</v>
+      </c>
+      <c r="J14" s="67"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="63"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="G15" s="69"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="72"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="G16" s="64" t="s">
+        <v>191</v>
+      </c>
+      <c r="H16" s="65">
+        <v>3000</v>
+      </c>
+      <c r="I16" s="65">
+        <v>3000</v>
+      </c>
+      <c r="J16" s="66"/>
+      <c r="K16" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="L16" s="65">
+        <f>H16*(H17+H18)*H19*H3</f>
+        <v>6480</v>
+      </c>
+      <c r="M16" s="65">
+        <f>I16*(I17+I18)*I19*I3</f>
+        <v>5670.0000000000018</v>
+      </c>
+    </row>
+    <row r="17" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G17" s="64" t="s">
+        <v>192</v>
+      </c>
+      <c r="H17" s="65">
+        <v>0.08</v>
+      </c>
+      <c r="I17" s="65">
+        <v>0.05</v>
+      </c>
+      <c r="J17" s="67"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="63"/>
+    </row>
+    <row r="18" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G18" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="H18" s="65">
+        <v>0.16</v>
+      </c>
+      <c r="I18" s="65">
+        <v>0.16</v>
+      </c>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="66"/>
+    </row>
+    <row r="19" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G19" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="H19" s="65">
+        <v>3</v>
+      </c>
+      <c r="I19" s="65">
+        <v>3</v>
+      </c>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="66"/>
+    </row>
+    <row r="20" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G20" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="H20" s="65">
+        <v>3</v>
+      </c>
+      <c r="I20" s="65">
+        <v>2</v>
+      </c>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="72"/>
+    </row>
+    <row r="21" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G21" s="76" t="s">
+        <v>203</v>
+      </c>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="42">
+        <f>SUM(L2,L6,L8,L13,L16)</f>
+        <v>134340</v>
+      </c>
+      <c r="M21" s="42">
+        <f>SUM(M2,M6,M8,M13,M16)</f>
+        <v>93966</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="J1:J20"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="K17:M20"/>
+    <mergeCell ref="K14:M15"/>
+    <mergeCell ref="K9:M12"/>
+    <mergeCell ref="K3:M5"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="G5:I5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>